--- a/public/politologiskprojektdesign/projektplan.xlsx
+++ b/public/politologiskprojektdesign/projektplan.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Madshove/Dropbox/Speciale/Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Madshove/Dropbox/website-blogdown/bdown/public/politologiskprojektdesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51B4A9B-39EE-3447-BB6E-330B5844CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDE548-E24F-8C41-B9B3-A8C0E6BEE309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{6452E0C4-EF01-0E4F-8F20-AD1AACB062D2}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15960" xr2:uid="{6452E0C4-EF01-0E4F-8F20-AD1AACB062D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="before" sheetId="1" r:id="rId1"/>
-    <sheet name="during" sheetId="2" r:id="rId2"/>
+    <sheet name="during-F21" sheetId="2" r:id="rId1"/>
+    <sheet name="before-E20" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,11 +610,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93168976-C73D-B642-B92D-9DE8EF8A1D16}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCAC764-E657-EF4B-8965-3CAB11F48DD1}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,230 +1000,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93168976-C73D-B642-B92D-9DE8EF8A1D16}">
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>